--- a/Sorption Experiments/RaCaCl2Oxic/RaCaCl2Oxic.xlsx
+++ b/Sorption Experiments/RaCaCl2Oxic/RaCaCl2Oxic.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaCaCl2Oxic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="131">
   <si>
     <t>Parameters</t>
   </si>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,27 +592,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -637,7 +617,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -666,7 +646,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -747,6 +726,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EE1-4F32-9F73-29235F5E8CEB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -820,6 +804,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EE1-4F32-9F73-29235F5E8CEB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -829,11 +818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187142728"/>
-        <c:axId val="187143120"/>
+        <c:axId val="219737248"/>
+        <c:axId val="219740776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187142728"/>
+        <c:axId val="219737248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,19 +844,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187143120"/>
+        <c:crossAx val="219740776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187143120"/>
+        <c:axId val="219740776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,21 +877,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187142728"/>
+        <c:crossAx val="219737248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -919,7 +905,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1044,6 +1030,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC27-4005-89A3-E188DE662AFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1123,6 +1114,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC27-4005-89A3-E188DE662AFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1132,11 +1128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187143512"/>
-        <c:axId val="187138416"/>
+        <c:axId val="219741560"/>
+        <c:axId val="219744304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187143512"/>
+        <c:axId val="219741560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,12 +1160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187138416"/>
+        <c:crossAx val="219744304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187138416"/>
+        <c:axId val="219744304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187143512"/>
+        <c:crossAx val="219741560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1235,7 +1231,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1267,7 +1269,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1592,7 +1600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1696,7 +1704,7 @@
       </c>
       <c r="B8">
         <f>'Count-&gt;Actual Activity'!F2/5</f>
-        <v>0.64572744116745173</v>
+        <v>0.63849739544864359</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1708,7 +1716,7 @@
       </c>
       <c r="B9">
         <f>'Count-&gt;Actual Activity'!F3/5</f>
-        <v>0.64883171767791248</v>
+        <v>0.63757539879275871</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1734,11 +1742,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A100" sqref="A100:A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,88 +2337,1684 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <v>1220.4000000000001</v>
+      </c>
+      <c r="D30">
+        <v>1.81</v>
+      </c>
+      <c r="E30">
+        <v>0.01</v>
+      </c>
+      <c r="F30">
+        <v>10.53</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31">
+        <v>1212.5999999999999</v>
+      </c>
+      <c r="D31">
+        <v>1.82</v>
+      </c>
+      <c r="E31">
+        <v>0.01</v>
+      </c>
+      <c r="F31">
+        <v>21.14</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A32" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32">
+        <v>1176.5</v>
+      </c>
+      <c r="D32">
+        <v>1.84</v>
+      </c>
+      <c r="E32">
+        <v>0.01</v>
+      </c>
+      <c r="F32">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>1165</v>
+      </c>
+      <c r="D33">
+        <v>1.85</v>
+      </c>
+      <c r="E33">
+        <v>0.01</v>
+      </c>
+      <c r="F33">
+        <v>42.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34">
+        <v>1196</v>
+      </c>
+      <c r="D34">
+        <v>1.83</v>
+      </c>
+      <c r="E34">
+        <v>0.01</v>
+      </c>
+      <c r="F34">
+        <v>52.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35">
+        <v>895</v>
+      </c>
+      <c r="D35">
+        <v>2.11</v>
+      </c>
+      <c r="E35">
+        <v>0.01</v>
+      </c>
+      <c r="F35">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36">
+        <v>963.5</v>
+      </c>
+      <c r="D36">
+        <v>2.04</v>
+      </c>
+      <c r="E36">
+        <v>0.01</v>
+      </c>
+      <c r="F36">
+        <v>74.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <v>937.2</v>
+      </c>
+      <c r="D37">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E37">
+        <v>0.01</v>
+      </c>
+      <c r="F37">
+        <v>84.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38">
+        <v>793.4</v>
+      </c>
+      <c r="D38">
+        <v>2.25</v>
+      </c>
+      <c r="E38">
+        <v>0.01</v>
+      </c>
+      <c r="F38">
+        <v>95.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39">
+        <v>780.7</v>
+      </c>
+      <c r="D39">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E39">
+        <v>0.01</v>
+      </c>
+      <c r="F39">
+        <v>106.07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40">
+        <v>815.6</v>
+      </c>
+      <c r="D40">
+        <v>2.21</v>
+      </c>
+      <c r="E40">
+        <v>0.01</v>
+      </c>
+      <c r="F40">
+        <v>116.69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41">
+        <v>1068.3</v>
+      </c>
+      <c r="D41">
+        <v>1.94</v>
+      </c>
+      <c r="E41">
+        <v>0.01</v>
+      </c>
+      <c r="F41">
+        <v>127.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42">
+        <v>1071.4000000000001</v>
+      </c>
+      <c r="D42">
+        <v>1.93</v>
+      </c>
+      <c r="E42">
+        <v>0.01</v>
+      </c>
+      <c r="F42">
+        <v>138.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>42945.54791666667</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43">
+        <v>1068.3</v>
+      </c>
+      <c r="D43">
+        <v>1.94</v>
+      </c>
+      <c r="E43">
+        <v>0.01</v>
+      </c>
+      <c r="F43">
+        <v>148.66999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44">
+        <v>1216.5</v>
+      </c>
+      <c r="D44">
+        <v>1.81</v>
+      </c>
+      <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="F44">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45">
+        <v>1227</v>
+      </c>
+      <c r="D45">
+        <v>1.81</v>
+      </c>
+      <c r="E45">
+        <v>0.01</v>
+      </c>
+      <c r="F45">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46">
+        <v>1144</v>
+      </c>
+      <c r="D46">
+        <v>1.87</v>
+      </c>
+      <c r="E46">
+        <v>0.01</v>
+      </c>
+      <c r="F46">
+        <v>31.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47">
+        <v>1168.2</v>
+      </c>
+      <c r="D47">
+        <v>1.85</v>
+      </c>
+      <c r="E47">
+        <v>0.01</v>
+      </c>
+      <c r="F47">
+        <v>42.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48">
+        <v>1194.7</v>
+      </c>
+      <c r="D48">
+        <v>1.83</v>
+      </c>
+      <c r="E48">
+        <v>0.01</v>
+      </c>
+      <c r="F48">
+        <v>53.09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49">
+        <v>934.6</v>
+      </c>
+      <c r="D49">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E49">
+        <v>0.01</v>
+      </c>
+      <c r="F49">
+        <v>63.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50">
+        <v>957.8</v>
+      </c>
+      <c r="D50">
+        <v>2.04</v>
+      </c>
+      <c r="E50">
+        <v>0.01</v>
+      </c>
+      <c r="F50">
+        <v>74.319999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51">
+        <v>920.6</v>
+      </c>
+      <c r="D51">
+        <v>2.08</v>
+      </c>
+      <c r="E51">
+        <v>0.01</v>
+      </c>
+      <c r="F51">
+        <v>84.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52">
+        <v>797.8</v>
+      </c>
+      <c r="D52">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E52">
+        <v>0.01</v>
+      </c>
+      <c r="F52">
+        <v>95.57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53">
+        <v>773.8</v>
+      </c>
+      <c r="D53">
+        <v>2.27</v>
+      </c>
+      <c r="E53">
+        <v>0.01</v>
+      </c>
+      <c r="F53">
+        <v>106.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54">
+        <v>810</v>
+      </c>
+      <c r="D54">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E54">
+        <v>0.01</v>
+      </c>
+      <c r="F54">
+        <v>116.81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55">
+        <v>1079.0999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1.93</v>
+      </c>
+      <c r="E55">
+        <v>0.01</v>
+      </c>
+      <c r="F55">
+        <v>127.45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56">
+        <v>1072.3</v>
+      </c>
+      <c r="D56">
+        <v>1.93</v>
+      </c>
+      <c r="E56">
+        <v>0.01</v>
+      </c>
+      <c r="F56">
+        <v>138.16999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>42947.347916666666</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57">
+        <v>1080.9000000000001</v>
+      </c>
+      <c r="D57">
+        <v>1.92</v>
+      </c>
+      <c r="E57">
+        <v>0.01</v>
+      </c>
+      <c r="F57">
+        <v>148.80000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58">
+        <v>1182.7</v>
+      </c>
+      <c r="D58">
+        <v>1.84</v>
+      </c>
+      <c r="E58">
+        <v>0.01</v>
+      </c>
+      <c r="F58">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59">
+        <v>1185.9000000000001</v>
+      </c>
+      <c r="D59">
+        <v>1.84</v>
+      </c>
+      <c r="E59">
+        <v>0.01</v>
+      </c>
+      <c r="F59">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60">
+        <v>1161.8</v>
+      </c>
+      <c r="D60">
+        <v>1.86</v>
+      </c>
+      <c r="E60">
+        <v>0.01</v>
+      </c>
+      <c r="F60">
+        <v>31.84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61">
+        <v>1205.4000000000001</v>
+      </c>
+      <c r="D61">
+        <v>1.82</v>
+      </c>
+      <c r="E61">
+        <v>0.01</v>
+      </c>
+      <c r="F61">
+        <v>42.46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62">
+        <v>1236.4000000000001</v>
+      </c>
+      <c r="D62">
+        <v>1.8</v>
+      </c>
+      <c r="E62">
+        <v>0.01</v>
+      </c>
+      <c r="F62">
+        <v>53.09</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63">
+        <v>919.9</v>
+      </c>
+      <c r="D63">
+        <v>2.09</v>
+      </c>
+      <c r="E63">
+        <v>0.01</v>
+      </c>
+      <c r="F63">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64">
+        <v>943.4</v>
+      </c>
+      <c r="D64">
+        <v>2.06</v>
+      </c>
+      <c r="E64">
+        <v>0.01</v>
+      </c>
+      <c r="F64">
+        <v>74.319999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65">
+        <v>945.4</v>
+      </c>
+      <c r="D65">
+        <v>2.06</v>
+      </c>
+      <c r="E65">
+        <v>0.01</v>
+      </c>
+      <c r="F65">
+        <v>84.94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66">
+        <v>803.2</v>
+      </c>
+      <c r="D66">
+        <v>2.23</v>
+      </c>
+      <c r="E66">
+        <v>0.01</v>
+      </c>
+      <c r="F66">
+        <v>95.56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67">
+        <v>761.3</v>
+      </c>
+      <c r="D67">
+        <v>2.29</v>
+      </c>
+      <c r="E67">
+        <v>0.01</v>
+      </c>
+      <c r="F67">
+        <v>106.19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68">
+        <v>807.9</v>
+      </c>
+      <c r="D68">
+        <v>2.23</v>
+      </c>
+      <c r="E68">
+        <v>0.01</v>
+      </c>
+      <c r="F68">
+        <v>116.81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69">
+        <v>1062.5</v>
+      </c>
+      <c r="D69">
+        <v>1.94</v>
+      </c>
+      <c r="E69">
+        <v>0.01</v>
+      </c>
+      <c r="F69">
+        <v>127.44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70">
+        <v>1077.4000000000001</v>
+      </c>
+      <c r="D70">
+        <v>1.93</v>
+      </c>
+      <c r="E70">
+        <v>0.01</v>
+      </c>
+      <c r="F70">
+        <v>138.16999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>42949.51458333333</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71">
+        <v>1049.8</v>
+      </c>
+      <c r="D71">
+        <v>1.95</v>
+      </c>
+      <c r="E71">
+        <v>0.01</v>
+      </c>
+      <c r="F71">
+        <v>148.79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72">
+        <v>1195.5</v>
+      </c>
+      <c r="D72">
+        <v>1.83</v>
+      </c>
+      <c r="E72">
+        <v>0.01</v>
+      </c>
+      <c r="F72">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73">
+        <v>1204.0999999999999</v>
+      </c>
+      <c r="D73">
+        <v>1.82</v>
+      </c>
+      <c r="E73">
+        <v>0.01</v>
+      </c>
+      <c r="F73">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74">
+        <v>1132.3</v>
+      </c>
+      <c r="D74">
+        <v>1.88</v>
+      </c>
+      <c r="E74">
+        <v>0.01</v>
+      </c>
+      <c r="F74">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75">
+        <v>1174.2</v>
+      </c>
+      <c r="D75">
+        <v>1.85</v>
+      </c>
+      <c r="E75">
+        <v>0.01</v>
+      </c>
+      <c r="F75">
+        <v>42.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76">
+        <v>1212.4000000000001</v>
+      </c>
+      <c r="D76">
+        <v>1.82</v>
+      </c>
+      <c r="E76">
+        <v>0.01</v>
+      </c>
+      <c r="F76">
+        <v>53.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77">
+        <v>906.8</v>
+      </c>
+      <c r="D77">
+        <v>2.1</v>
+      </c>
+      <c r="E77">
+        <v>0.01</v>
+      </c>
+      <c r="F77">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78">
+        <v>943</v>
+      </c>
+      <c r="D78">
+        <v>2.06</v>
+      </c>
+      <c r="E78">
+        <v>0.01</v>
+      </c>
+      <c r="F78">
+        <v>74.260000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79">
+        <v>928.5</v>
+      </c>
+      <c r="D79">
+        <v>2.08</v>
+      </c>
+      <c r="E79">
+        <v>0.01</v>
+      </c>
+      <c r="F79">
+        <v>84.87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80">
+        <v>771.2</v>
+      </c>
+      <c r="D80">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E80">
+        <v>0.01</v>
+      </c>
+      <c r="F80">
+        <v>95.51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81">
+        <v>772.4</v>
+      </c>
+      <c r="D81">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E81">
+        <v>0.01</v>
+      </c>
+      <c r="F81">
+        <v>106.12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82">
+        <v>802.8</v>
+      </c>
+      <c r="D82">
+        <v>2.23</v>
+      </c>
+      <c r="E82">
+        <v>0.01</v>
+      </c>
+      <c r="F82">
+        <v>116.74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83">
+        <v>1067.5</v>
+      </c>
+      <c r="D83">
+        <v>1.94</v>
+      </c>
+      <c r="E83">
+        <v>0.01</v>
+      </c>
+      <c r="F83">
+        <v>127.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84">
+        <v>1062.3</v>
+      </c>
+      <c r="D84">
+        <v>1.94</v>
+      </c>
+      <c r="E84">
+        <v>0.01</v>
+      </c>
+      <c r="F84">
+        <v>138.09</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <v>42950.48541666667</v>
+      </c>
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85">
+        <v>1035.5999999999999</v>
+      </c>
+      <c r="D85">
+        <v>1.97</v>
+      </c>
+      <c r="E85">
+        <v>0.01</v>
+      </c>
+      <c r="F85">
+        <v>148.72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86">
+        <v>1220.0999999999999</v>
+      </c>
+      <c r="D86">
+        <v>1.81</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87">
+        <v>1206.3</v>
+      </c>
+      <c r="D87">
+        <v>1.82</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88">
+        <v>1199.3</v>
+      </c>
+      <c r="D88">
+        <v>1.83</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>31.84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89">
+        <v>1191.5</v>
+      </c>
+      <c r="D89">
+        <v>1.83</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90">
+        <v>1171.7</v>
+      </c>
+      <c r="D90">
+        <v>1.85</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91">
+        <v>934.7</v>
+      </c>
+      <c r="D91">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E91">
+        <v>0.01</v>
+      </c>
+      <c r="F91">
+        <v>63.69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92">
+        <v>952.4</v>
+      </c>
+      <c r="D92">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E92">
+        <v>0.01</v>
+      </c>
+      <c r="F92">
+        <v>74.41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93">
+        <v>953.2</v>
+      </c>
+      <c r="D93">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E93">
+        <v>0.01</v>
+      </c>
+      <c r="F93">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94">
+        <v>784.1</v>
+      </c>
+      <c r="D94">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E94">
+        <v>0.01</v>
+      </c>
+      <c r="F94">
+        <v>95.72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95">
+        <v>789.5</v>
+      </c>
+      <c r="D95">
+        <v>2.25</v>
+      </c>
+      <c r="E95">
+        <v>0.01</v>
+      </c>
+      <c r="F95">
+        <v>106.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96">
+        <v>801</v>
+      </c>
+      <c r="D96">
+        <v>2.23</v>
+      </c>
+      <c r="E96">
+        <v>0.01</v>
+      </c>
+      <c r="F96">
+        <v>116.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97">
+        <v>1077.9000000000001</v>
+      </c>
+      <c r="D97">
+        <v>1.93</v>
+      </c>
+      <c r="E97">
+        <v>0.01</v>
+      </c>
+      <c r="F97">
+        <v>127.59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98">
+        <v>1057.4000000000001</v>
+      </c>
+      <c r="D98">
+        <v>1.94</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>138.32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="16">
+        <v>42961.544444444444</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99">
+        <v>1065.9000000000001</v>
+      </c>
+      <c r="D99">
+        <v>1.94</v>
+      </c>
+      <c r="E99">
+        <v>0.01</v>
+      </c>
+      <c r="F99">
+        <v>148.94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100">
+        <v>1246.5999999999999</v>
+      </c>
+      <c r="D100">
+        <v>1.79</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101">
+        <v>1220.3</v>
+      </c>
+      <c r="D101">
+        <v>1.81</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102">
+        <v>1158.5</v>
+      </c>
+      <c r="D102">
+        <v>1.86</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>31.84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103">
+        <v>1183.2</v>
+      </c>
+      <c r="D103">
+        <v>1.84</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104">
+        <v>1206.8</v>
+      </c>
+      <c r="D104">
+        <v>1.82</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>53.16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105">
+        <v>929.4</v>
+      </c>
+      <c r="D105">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E105">
+        <v>0.01</v>
+      </c>
+      <c r="F105">
+        <v>63.79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106">
+        <v>956.7</v>
+      </c>
+      <c r="D106">
+        <v>2.04</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107">
+        <v>930.7</v>
+      </c>
+      <c r="D107">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>85.02</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108">
+        <v>778.6</v>
+      </c>
+      <c r="D108">
+        <v>2.27</v>
+      </c>
+      <c r="E108">
+        <v>0.01</v>
+      </c>
+      <c r="F108">
+        <v>95.64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109">
+        <v>763.7</v>
+      </c>
+      <c r="D109">
+        <v>2.29</v>
+      </c>
+      <c r="E109">
+        <v>0.01</v>
+      </c>
+      <c r="F109">
+        <v>106.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B110" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110">
+        <v>803.1</v>
+      </c>
+      <c r="D110">
+        <v>2.23</v>
+      </c>
+      <c r="E110">
+        <v>0.01</v>
+      </c>
+      <c r="F110">
+        <v>116.87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C111">
+        <v>1049.9000000000001</v>
+      </c>
+      <c r="D111">
+        <v>1.95</v>
+      </c>
+      <c r="E111">
+        <v>0.01</v>
+      </c>
+      <c r="F111">
+        <v>127.51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112">
+        <v>1083.8</v>
+      </c>
+      <c r="D112">
+        <v>1.92</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>138.24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="16">
+        <v>42964.332638888889</v>
+      </c>
+      <c r="B113" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113">
+        <v>1043.3</v>
+      </c>
+      <c r="D113">
+        <v>1.96</v>
+      </c>
+      <c r="E113">
+        <v>0.01</v>
+      </c>
+      <c r="F113">
+        <v>148.87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2418,7 +4022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5796,11 +7400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5845,17 +7449,17 @@
         <v>83</v>
       </c>
       <c r="C2">
-        <v>20.53</v>
+        <v>20.302916666666668</v>
       </c>
       <c r="D2">
-        <v>0.36954000000000009</v>
+        <v>0.3677365781250001</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="1">
         <f>C2*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.2286372058372588</v>
+        <v>3.1924869772432181</v>
       </c>
       <c r="G2" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5870,17 +7474,17 @@
         <v>83</v>
       </c>
       <c r="C3">
-        <v>20.627500000000001</v>
+        <v>20.273958333333329</v>
       </c>
       <c r="D3">
-        <v>0.37129499999999999</v>
+        <v>0.36797234374999999</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="1">
         <f>C3*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.2441585883895625</v>
+        <v>3.1878769939637936</v>
       </c>
       <c r="G3" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5895,17 +7499,17 @@
         <v>83</v>
       </c>
       <c r="C4">
-        <v>19.085000000000001</v>
+        <v>19.29708333333333</v>
       </c>
       <c r="D4">
-        <v>0.35688950000000003</v>
+        <v>0.35892574999999999</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="1">
         <f>C4*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.9986023567287563</v>
+        <v>3.0323646803147497</v>
       </c>
       <c r="G4" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5920,17 +7524,17 @@
         <v>83</v>
       </c>
       <c r="C5">
-        <v>19.821666666666669</v>
+        <v>19.721041666666661</v>
       </c>
       <c r="D5">
-        <v>0.36273650000000002</v>
+        <v>0.36237414062500001</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1">
         <f>C5*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.1158750249017184</v>
+        <v>3.0998561621394036</v>
       </c>
       <c r="G5" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5945,17 +7549,17 @@
         <v>83</v>
       </c>
       <c r="C6">
-        <v>19.85166666666667</v>
+        <v>20.00041666666667</v>
       </c>
       <c r="D6">
-        <v>0.36328549999999998</v>
+        <v>0.36525760937500001</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="1">
         <f>C6*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.1206508349178121</v>
+        <v>3.1443308929142755</v>
       </c>
       <c r="G6" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5970,17 +7574,17 @@
         <v>83</v>
       </c>
       <c r="C7">
-        <v>15.37333333333333</v>
+        <v>15.34416666666667</v>
       </c>
       <c r="D7">
-        <v>0.32053399999999999</v>
+        <v>0.31992587500000003</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1">
         <f>C7*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.407728528626524</v>
+        <v>2.4030853799997676</v>
       </c>
       <c r="G7" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5995,17 +7599,17 @@
         <v>83</v>
       </c>
       <c r="C8">
-        <v>16.326666666666672</v>
+        <v>15.991666666666671</v>
       </c>
       <c r="D8">
-        <v>0.32979866666666668</v>
+        <v>0.32642989583333332</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="1">
         <f>C8*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.5594931580268292</v>
+        <v>2.5061632795137854</v>
       </c>
       <c r="G8" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6020,17 +7624,17 @@
         <v>83</v>
       </c>
       <c r="C9">
-        <v>15.660833333333329</v>
+        <v>15.614375000000001</v>
       </c>
       <c r="D9">
-        <v>0.32339620833333338</v>
+        <v>0.32282720312500002</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1">
         <f>C9*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.4534967079474197</v>
+        <v>2.4461008354919427</v>
       </c>
       <c r="G9" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6045,17 +7649,17 @@
         <v>83</v>
       </c>
       <c r="C10">
-        <v>13.317500000000001</v>
+        <v>13.18</v>
       </c>
       <c r="D10">
-        <v>0.29831200000000008</v>
+        <v>0.29671475000000003</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1">
         <f>C10*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.0804528811347858</v>
+        <v>2.0585637518943574</v>
       </c>
       <c r="G10" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6070,17 +7674,17 @@
         <v>83</v>
       </c>
       <c r="C11">
-        <v>13.069166666666669</v>
+        <v>12.936875000000001</v>
       </c>
       <c r="D11">
-        <v>0.29470970833333332</v>
+        <v>0.29350535156250002</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1">
         <f>C11*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.0409197871126792</v>
+        <v>2.0198597915556</v>
       </c>
       <c r="G11" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6095,17 +7699,17 @@
         <v>83</v>
       </c>
       <c r="C12">
-        <v>13.68</v>
+        <v>13.50416666666667</v>
       </c>
       <c r="D12">
-        <v>0.30232799999999999</v>
+        <v>0.29996130208333333</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1">
         <f>C12*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.1381605854959154</v>
+        <v>2.1101690323460347</v>
       </c>
       <c r="G12" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6120,17 +7724,17 @@
         <v>83</v>
       </c>
       <c r="C13">
-        <v>18.002500000000001</v>
+        <v>17.844791666666669</v>
       </c>
       <c r="D13">
-        <v>0.34654812499999987</v>
+        <v>0.34529671875000001</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="1">
         <f>C13*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.8262752119813834</v>
+        <v>2.8011690440495589</v>
       </c>
       <c r="G13" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6145,17 +7749,17 @@
         <v>83</v>
       </c>
       <c r="C14">
-        <v>18.181666666666668</v>
+        <v>17.93</v>
       </c>
       <c r="D14">
-        <v>0.34817891666666673</v>
+        <v>0.34560075000000001</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="1">
         <f>C14*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.8547974106886085</v>
+        <v>2.8147336711091575</v>
       </c>
       <c r="G14" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6170,17 +7774,17 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>17.391666666666669</v>
+        <v>17.564166666666669</v>
       </c>
       <c r="D15">
-        <v>0.34000708333333329</v>
+        <v>0.34228169791666663</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="1">
         <f>C15*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.7290344135981472</v>
+        <v>2.7564953211906844</v>
       </c>
       <c r="G15" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6193,14 +7797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6318,7 +7922,7 @@
       </c>
       <c r="J2" s="1">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>2.9986023567287563</v>
+        <v>3.0323646803147497</v>
       </c>
       <c r="K2" s="15">
         <f>'Count-&gt;Actual Activity'!G4</f>
@@ -6332,19 +7936,19 @@
       </c>
       <c r="N2">
         <f>J2/L2</f>
-        <v>0.59972047134575124</v>
+        <v>0.60647293606294994</v>
       </c>
       <c r="O2" s="15">
         <f>SQRT((M2/L2)^2+(K2/J2)^2)*N2</f>
-        <v>3.1512969722984285E-2</v>
+        <v>3.1513486634700182E-2</v>
       </c>
       <c r="P2">
         <f>B2*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q2">
         <f>P2*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C2/'Bottle Results'!B2)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R2" t="e">
         <f>(P2-N2*H2)/F2</f>
@@ -6352,7 +7956,7 @@
       </c>
       <c r="T2">
         <f>(P2-N2*H2)/P2</f>
-        <v>7.3475372294842814E-2</v>
+        <v>4.9469687309672654E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -6383,7 +7987,7 @@
       </c>
       <c r="J3" s="1">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>3.1158750249017184</v>
+        <v>3.0998561621394036</v>
       </c>
       <c r="K3" s="15">
         <f>'Count-&gt;Actual Activity'!G5</f>
@@ -6397,19 +8001,19 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N13" si="0">J3/L3</f>
-        <v>0.62317500498034373</v>
+        <v>0.61997123242788077</v>
       </c>
       <c r="O3" s="15">
         <f t="shared" ref="O3:O13" si="1">SQRT((M3/L3)^2+(K3/J3)^2)*N3</f>
-        <v>3.1514790028398555E-2</v>
+        <v>3.1514537272548881E-2</v>
       </c>
       <c r="P3">
         <f>B3*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q3">
         <f>P3*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C3/'Bottle Results'!B3)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R3" t="e">
         <f t="shared" ref="R3:R13" si="2">(P3-N3*H3)/F3</f>
@@ -6417,7 +8021,7 @@
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T13" si="3">(P3-N3*H3)/P3</f>
-        <v>3.7239819096158672E-2</v>
+        <v>2.8313689899736049E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -6448,7 +8052,7 @@
       </c>
       <c r="J4" s="1">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>3.1206508349178121</v>
+        <v>3.1443308929142755</v>
       </c>
       <c r="K4" s="15">
         <f>'Count-&gt;Actual Activity'!G6</f>
@@ -6462,19 +8066,19 @@
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0.62413016698356238</v>
+        <v>0.6288661785828551</v>
       </c>
       <c r="O4" s="15">
         <f t="shared" si="1"/>
-        <v>3.1514865635888012E-2</v>
+        <v>3.1515242230847305E-2</v>
       </c>
       <c r="P4">
         <f>B4*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q4">
         <f>P4*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C4/'Bottle Results'!B4)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R4" t="e">
         <f t="shared" si="2"/>
@@ -6482,7 +8086,7 @@
       </c>
       <c r="T4">
         <f t="shared" si="3"/>
-        <v>3.5764163083542612E-2</v>
+        <v>1.437256335097644E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -6517,7 +8121,7 @@
       </c>
       <c r="J5" s="1">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>2.407728528626524</v>
+        <v>2.4030853799997676</v>
       </c>
       <c r="K5" s="15">
         <f>'Count-&gt;Actual Activity'!G7</f>
@@ -6531,27 +8135,27 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.48154570572530481</v>
+        <v>0.48061707599995351</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" si="1"/>
-        <v>3.1504859105438474E-2</v>
+        <v>3.1504802384425309E-2</v>
       </c>
       <c r="P5">
         <f>B5*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q5">
         <f>P5*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C5/'Bottle Results'!B5)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>551.13839510611319</v>
+        <v>523.48883222027598</v>
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>0.25604681341128921</v>
+        <v>0.24672467249696367</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -6586,7 +8190,7 @@
       </c>
       <c r="J6" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>2.5594931580268292</v>
+        <v>2.5061632795137854</v>
       </c>
       <c r="K6" s="15">
         <f>'Count-&gt;Actual Activity'!G8</f>
@@ -6600,27 +8204,27 @@
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0.51189863160536586</v>
+        <v>0.50123265590275712</v>
       </c>
       <c r="O6" s="15">
         <f t="shared" si="1"/>
-        <v>3.1506773288022968E-2</v>
+        <v>3.150608733067458E-2</v>
       </c>
       <c r="P6">
         <f>B6*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q6">
         <f>P6*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C6/'Bottle Results'!B6)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>450.20149860384794</v>
+        <v>454.93291562739159</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>0.20915374456593297</v>
+        <v>0.21441369463451476</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -6655,7 +8259,7 @@
       </c>
       <c r="J7" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>2.4534967079474197</v>
+        <v>2.4461008354919427</v>
       </c>
       <c r="K7" s="15">
         <f>'Count-&gt;Actual Activity'!G9</f>
@@ -6669,27 +8273,27 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0.49069934158948392</v>
+        <v>0.48922016709838856</v>
       </c>
       <c r="O7" s="15">
         <f t="shared" si="1"/>
-        <v>3.15054240657393E-2</v>
+        <v>3.1505332051484605E-2</v>
       </c>
       <c r="P7">
         <f>B7*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q7">
         <f>P7*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C7/'Bottle Results'!B7)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>520.69850936023829</v>
+        <v>494.87975119679771</v>
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
-        <v>0.24190510995705178</v>
+        <v>0.23324097291923007</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6720,7 +8324,7 @@
       </c>
       <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>2.0804528811347858</v>
+        <v>2.0585637518943574</v>
       </c>
       <c r="K8" s="15">
         <f>'Count-&gt;Actual Activity'!G10</f>
@@ -6734,27 +8338,27 @@
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0.41609057622695717</v>
+        <v>0.41171275037887145</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" si="1"/>
-        <v>3.1501128990200009E-2</v>
+        <v>3.1500898903714124E-2</v>
       </c>
       <c r="P8">
         <f>B8*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q8">
         <f>P8*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C8/'Bottle Results'!B8)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R8">
         <f t="shared" si="2"/>
-        <v>778.41415217415783</v>
+        <v>762.03248061222132</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>0.35717024072028608</v>
+        <v>0.3547190219291122</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -6785,7 +8389,7 @@
       </c>
       <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>2.0409197871126792</v>
+        <v>2.0198597915556</v>
       </c>
       <c r="K9" s="15">
         <f>'Count-&gt;Actual Activity'!G11</f>
@@ -6799,27 +8403,27 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0.40818395742253583</v>
+        <v>0.40397195831111998</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
-        <v>3.1500715210279091E-2</v>
+        <v>3.1500498020811139E-2</v>
       </c>
       <c r="P9">
         <f>B9*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q9">
         <f>P9*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C9/'Bottle Results'!B9)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>789.09446204668711</v>
+        <v>772.48989706132386</v>
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
-        <v>0.36938539326916353</v>
+        <v>0.36685123272881526</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -6850,7 +8454,7 @@
       </c>
       <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>2.1381605854959154</v>
+        <v>2.1101690323460347</v>
       </c>
       <c r="K10" s="15">
         <f>'Count-&gt;Actual Activity'!G12</f>
@@ -6864,27 +8468,27 @@
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>0.42763211709918308</v>
+        <v>0.42203380646920696</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="1"/>
-        <v>3.1501747238796438E-2</v>
+        <v>3.1501445241796946E-2</v>
       </c>
       <c r="P10">
         <f>B10*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q10">
         <f>P10*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C10/'Bottle Results'!B10)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>737.07202121979515</v>
+        <v>724.84090822649046</v>
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
-        <v>0.33933939723450829</v>
+        <v>0.33854274086284086</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -6915,7 +8519,7 @@
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>2.8262752119813834</v>
+        <v>2.8011690440495589</v>
       </c>
       <c r="K11" s="15">
         <f>'Count-&gt;Actual Activity'!G13</f>
@@ -6929,27 +8533,27 @@
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0.56525504239627666</v>
+        <v>0.5602338088099118</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="1"/>
-        <v>3.1510421375134573E-2</v>
+        <v>3.1510062676371409E-2</v>
       </c>
       <c r="P11">
         <f>B11*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q11">
         <f>P11*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C11/'Bottle Results'!B11)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>272.50676752958606</v>
+        <v>258.48035983650936</v>
       </c>
       <c r="T11">
         <f t="shared" si="3"/>
-        <v>0.12672196008340672</v>
+        <v>0.121940674014669</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -6980,7 +8584,7 @@
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>2.8547974106886085</v>
+        <v>2.8147336711091575</v>
       </c>
       <c r="K12" s="15">
         <f>'Count-&gt;Actual Activity'!G14</f>
@@ -6994,27 +8598,27 @@
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0.57095948213772174</v>
+        <v>0.5629467342218315</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" si="1"/>
-        <v>3.1510832758080067E-2</v>
+        <v>3.1510256080981063E-2</v>
       </c>
       <c r="P12">
         <f>B12*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q12">
         <f>P12*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C12/'Bottle Results'!B12)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>253.55514048159569</v>
+        <v>249.46731860089579</v>
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
-        <v>0.11790901445250487</v>
+        <v>0.11768868239763518</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -7045,7 +8649,7 @@
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>2.7290344135981472</v>
+        <v>2.7564953211906844</v>
       </c>
       <c r="K13" s="15">
         <f>'Count-&gt;Actual Activity'!G15</f>
@@ -7059,32 +8663,32 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0.5458068827196294</v>
+        <v>0.5512990642381369</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="1"/>
-        <v>3.150904985555128E-2</v>
+        <v>3.150943231509637E-2</v>
       </c>
       <c r="P13">
         <f>B13*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="Q13">
         <f>P13*SQRT((_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2+('Bottle Results'!C13/'Bottle Results'!B13)^2)</f>
-        <v>0.22553065585900378</v>
+        <v>8.2799565272043713E-2</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>333.7917654705679</v>
+        <v>285.32017395580334</v>
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
-        <v>0.15676795611806199</v>
+        <v>0.13594417696856814</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.209</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7093,16 +8697,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="12" bestFit="1" customWidth="1"/>
@@ -7161,11 +8765,11 @@
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!N2:N4)</f>
-        <v>0.61567521443655238</v>
+        <v>0.61843678235789523</v>
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!N2:N4)</f>
-        <v>1.3825463968098861E-2</v>
+        <v>1.1275204228828004E-2</v>
       </c>
       <c r="D2" t="e">
         <f>AVERAGE('Bottle Results'!R2:R4)</f>
@@ -7177,15 +8781,15 @@
       </c>
       <c r="F2">
         <f>AVERAGE('Bottle Results'!P2:P4)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="G2">
         <f>AVERAGE('Bottle Results'!T2:T4)</f>
-        <v>4.8826451491514704E-2</v>
+        <v>3.0718646853461717E-2</v>
       </c>
       <c r="H2">
         <f>_xlfn.STDEV.S('Bottle Results'!T2:T4)</f>
-        <v>2.1359339005302781E-2</v>
+        <v>1.7671725750615781E-2</v>
       </c>
       <c r="I2">
         <f>AVERAGE('Bottle Results'!D2:D4)</f>
@@ -7214,31 +8818,31 @@
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!N5:N7)</f>
-        <v>0.49471455964005157</v>
+        <v>0.49035663300036642</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!N5:N7)</f>
-        <v>1.5569730548899137E-2</v>
+        <v>1.0354670431355538E-2</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!R5:R7)</f>
-        <v>507.3461343567331</v>
+        <v>491.10049968148843</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!R5:R7)</f>
-        <v>51.776236900270412</v>
+        <v>34.433856616484391</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!P5:P7)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!T5:T7)</f>
-        <v>0.23570188931142466</v>
+        <v>0.23145978001690284</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!T5:T7)</f>
-        <v>2.4054104352845503E-2</v>
+        <v>1.6228965115600919E-2</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -7267,31 +8871,31 @@
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!N8:N10)</f>
-        <v>0.41730221691622532</v>
+        <v>0.41257283838639952</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!N8:N10)</f>
-        <v>9.7805308430580513E-3</v>
+        <v>9.0615894442954998E-3</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!R8:R10)</f>
-        <v>768.19354514687996</v>
+        <v>753.1210953000118</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!R8:R10)</f>
-        <v>27.475974839874187</v>
+        <v>25.043285035763901</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!P8:P10)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!T8:T10)</f>
-        <v>0.3552983437413193</v>
+        <v>0.35337099850692272</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!T8:T10)</f>
-        <v>1.5110210724987536E-2</v>
+        <v>1.4202308026921649E-2</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -7320,31 +8924,31 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!N11:N13)</f>
-        <v>0.5606738024178759</v>
+        <v>0.55815986908995996</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!N11:N13)</f>
-        <v>1.3187271672962818E-2</v>
+        <v>6.0945035469478675E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!R11:R13)</f>
-        <v>286.61789116058321</v>
+        <v>264.42261746440283</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!R11:R13)</f>
-        <v>41.938310111426752</v>
+        <v>18.650459205128818</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!P11:P13)</f>
-        <v>64.727957942268205</v>
+        <v>63.803639712070115</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!T11:T13)</f>
-        <v>0.13379964355132454</v>
+        <v>0.1251911777936241</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!T11:T13)</f>
-        <v>2.0373378200382507E-2</v>
+        <v>9.5519684683363464E-3</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
